--- a/data/trans_camb/POLIPATOLOGIA_2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.57884699568823</v>
+        <v>-12.24299906676282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.18526537484693</v>
+        <v>-10.51355876613761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.243848294902442</v>
+        <v>1.77249169429529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.333131178322574</v>
+        <v>-5.491343293225674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.082084820697221</v>
+        <v>-6.146099654105512</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.227571014447909</v>
+        <v>3.91168627998599</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.469573807766322</v>
+        <v>-8.570935021088234</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.869876795216137</v>
+        <v>-8.401226038041843</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.851360623184336</v>
+        <v>4.372129685112786</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.972949990215792</v>
+        <v>-3.140999105952504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9404699545326883</v>
+        <v>-1.436880748254063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.10877162845832</v>
+        <v>13.85579429199239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.56905523492522</v>
+        <v>3.481884079873439</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.042599102764524</v>
+        <v>2.490471251332067</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.19146662481683</v>
+        <v>14.03487524615393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.018595434423952</v>
+        <v>-1.891639413135713</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.866633056042755</v>
+        <v>-1.802511651107705</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.43318436120693</v>
+        <v>12.05957978089796</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3643174602004436</v>
+        <v>-0.3620303988358786</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3219359544972356</v>
+        <v>-0.3048056076663462</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0656531515683212</v>
+        <v>0.04977352096356603</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1140463778582487</v>
+        <v>-0.1179934550282095</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1301812032084935</v>
+        <v>-0.1330875406153679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09011046399616228</v>
+        <v>0.08513610593647845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2061787250252428</v>
+        <v>-0.2112800241534065</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.191639028777567</v>
+        <v>-0.2040556057956574</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.096236759827609</v>
+        <v>0.1058949187913293</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1076891577797104</v>
+        <v>-0.1107076813525834</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03121230027220727</v>
+        <v>-0.05245605148378985</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4878780791621494</v>
+        <v>0.4785691630106291</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08576642524837291</v>
+        <v>0.08391129234619078</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07349005774255635</v>
+        <v>0.0590664755020223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3400623741750396</v>
+        <v>0.3385931682270896</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.0564713685382266</v>
+        <v>-0.05303419873433143</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04997508391449574</v>
+        <v>-0.04767700857678122</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3041780412880307</v>
+        <v>0.3173500326057168</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9012539962176948</v>
+        <v>1.339632490179263</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4082858942659576</v>
+        <v>0.03668295284598275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.774620584990849</v>
+        <v>7.059728676075591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.143325578301061</v>
+        <v>1.115647790168537</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.421477294321714</v>
+        <v>-3.277535839618144</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.943890192478169</v>
+        <v>7.939503160633005</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.838044755798517</v>
+        <v>2.60933216589112</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04786619772675962</v>
+        <v>-0.2275378302645988</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.141807481150057</v>
+        <v>9.103666089494073</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.787290488662263</v>
+        <v>9.021704307153017</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.768214079222595</v>
+        <v>7.291780095870355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.66862796441742</v>
+        <v>14.46346070057426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.862034794831461</v>
+        <v>9.268267075076277</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.220948090007511</v>
+        <v>5.113663316885531</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.97111794255338</v>
+        <v>15.64910592565351</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.808593765593924</v>
+        <v>8.115066681447459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.716256545653646</v>
+        <v>5.576147355650467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.73387240583149</v>
+        <v>14.77266820329596</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.02823024931458313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3513138309086483</v>
+        <v>0.3513138309086482</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2072065499951807</v>
@@ -983,7 +983,7 @@
         <v>0.1046536915797638</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4498433102461288</v>
+        <v>0.4498433102461286</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04128003015377228</v>
+        <v>0.05926537558233597</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02071766199801205</v>
+        <v>0.001431201252778405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3238651995302717</v>
+        <v>0.3332046113437793</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03137824114848423</v>
+        <v>0.03006415517893926</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09571987983484395</v>
+        <v>-0.09069012702437818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2221798415193006</v>
+        <v>0.2281689378593143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1002416605917188</v>
+        <v>0.09217481638697463</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.00211781464001426</v>
+        <v>-0.007828660429564718</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3298267159635369</v>
+        <v>0.3278212012551012</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4783365645344941</v>
+        <v>0.4905920868190541</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4200187877492447</v>
+        <v>0.3983276483685237</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8062048955858893</v>
+        <v>0.8014300295117216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3182004256099399</v>
+        <v>0.2939666011879166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1646484795250634</v>
+        <v>0.1664386162654133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5141321647626603</v>
+        <v>0.5091464873934217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.349116105227551</v>
+        <v>0.3188103285343155</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2278680298152749</v>
+        <v>0.2222926140565107</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5874181672958059</v>
+        <v>0.5845705419734046</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.701197071650727</v>
+        <v>9.036300852063965</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.323840116687412</v>
+        <v>4.075663748030905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.85923931526439</v>
+        <v>10.74709273720866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.045699378958605</v>
+        <v>6.958982673859524</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.47524653862795</v>
+        <v>2.575205066478899</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.21866462538154</v>
+        <v>13.35493395924182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.425993478047983</v>
+        <v>9.20676954393854</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.485478964864497</v>
+        <v>4.677971580880834</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.51401605248372</v>
+        <v>13.2651087218033</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.40843165511026</v>
+        <v>16.44373965552324</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.45871279439264</v>
+        <v>11.7277008145995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.19596940625425</v>
+        <v>17.77833820391706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.14400071190675</v>
+        <v>15.09872456012843</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.51385108525727</v>
+        <v>11.3280606188005</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.96949248559143</v>
+        <v>20.68258581483603</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.11818677168468</v>
+        <v>14.83780047148164</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.34086338893256</v>
+        <v>10.28162240043936</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.70622286702571</v>
+        <v>18.60101630422328</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5598739323795497</v>
+        <v>0.5610356176326821</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.267387514659759</v>
+        <v>0.2622811115796866</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.677020891526489</v>
+        <v>0.6577955685265638</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2543065783188243</v>
+        <v>0.2600270310422966</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09451600286022585</v>
+        <v>0.09517608751543566</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4728737721366331</v>
+        <v>0.4800883046963226</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4480495489621225</v>
+        <v>0.4265941649416901</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2107935158008033</v>
+        <v>0.2225114529139933</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6446133547652283</v>
+        <v>0.6371347590828046</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.284151691999696</v>
+        <v>1.265400310963845</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8690132496267894</v>
+        <v>0.9018492799513074</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.402463510920195</v>
+        <v>1.36552838329704</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6436775041223277</v>
+        <v>0.655771858575615</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.494169460817209</v>
+        <v>0.477216454923035</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9000934289555717</v>
+        <v>0.8941314461993016</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.808841832653606</v>
+        <v>0.8052959868710441</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5631932466689095</v>
+        <v>0.5636427868991405</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.014719525819224</v>
+        <v>1.016132060397362</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.494931744698076</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.98468392403185</v>
+        <v>18.98468392403184</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.99565164452583</v>
@@ -1306,7 +1306,7 @@
         <v>4.987921945872084</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>18.94742659884801</v>
+        <v>18.947426598848</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.431352941065957</v>
+        <v>-1.886998442343583</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.269763445726849</v>
+        <v>0.7597027663215222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13.03227793557135</v>
+        <v>12.9983407816145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.988402295486549</v>
+        <v>-2.466253238936218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.334516924426965</v>
+        <v>-3.929523532588605</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.27837844954182</v>
+        <v>13.31720536369127</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1238379807995722</v>
+        <v>0.4617748096304745</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6135245254957644</v>
+        <v>0.9217478967453288</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.38828551260074</v>
+        <v>15.25547895173766</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.118493900782743</v>
+        <v>8.307605598829804</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.76949286195679</v>
+        <v>11.60479365932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.51500948513597</v>
+        <v>22.80332015639706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.948534307439642</v>
+        <v>10.89260634347661</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.03022885135311</v>
+        <v>8.876219135328792</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.52307245793888</v>
+        <v>24.30337916271348</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.2053341415543</v>
+        <v>8.468087024696143</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.80508029723258</v>
+        <v>9.119527689531134</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22.9213343460616</v>
+        <v>22.40108520529705</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.09030706724407704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6871735595085656</v>
+        <v>0.6871735595085654</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1890553725389391</v>
@@ -1411,7 +1411,7 @@
         <v>0.2360049187380807</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8965027767640911</v>
+        <v>0.8965027767640908</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.123171929702345</v>
+        <v>-0.1053851106710718</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05917038756534369</v>
+        <v>0.03508017223404326</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.671084997294552</v>
+        <v>0.6910267688644401</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09325888057365801</v>
+        <v>-0.08005873165339929</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1321406837415595</v>
+        <v>-0.1258907097797838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4034800105206534</v>
+        <v>0.4010184043569736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.007749075794478964</v>
+        <v>0.00943030533336882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02182455669038695</v>
+        <v>0.03408667555403495</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6372629837403159</v>
+        <v>0.6511086225192027</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5836832147311862</v>
+        <v>0.5950876491305701</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8589191133219021</v>
+        <v>0.8487970375282514</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.668563828895029</v>
+        <v>1.763516127911031</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4192462686456007</v>
+        <v>0.4733091913135876</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3813586561543683</v>
+        <v>0.369697687929774</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.036344852280431</v>
+        <v>1.039671101126987</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4328614247015394</v>
+        <v>0.4356803595292007</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4527928794171213</v>
+        <v>0.4940159100459184</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.219172177655806</v>
+        <v>1.217551759725538</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.656097940027469</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>12.75826119348724</v>
+        <v>12.75826119348725</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.042319822737079</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.76097321439911</v>
+        <v>2.677018747164036</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.406047884645071</v>
+        <v>2.380933124231348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.54134714256198</v>
+        <v>10.57079199446848</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.766756678852699</v>
+        <v>2.91805186440532</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3182964399281377</v>
+        <v>0.2793667831900181</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.47309754670311</v>
+        <v>10.42402989850509</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.553648268899042</v>
+        <v>3.423593458725569</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.925930050880749</v>
+        <v>1.892721775874881</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>11.30930425153224</v>
+        <v>11.35711575569962</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.983607560402063</v>
+        <v>6.838998912816729</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.473016842111861</v>
+        <v>6.259531080158117</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.91435317826638</v>
+        <v>14.91570849287015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.498806301524017</v>
+        <v>7.581540618950351</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.961999076211086</v>
+        <v>5.004262847836427</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.8966867583193</v>
+        <v>14.76004518154505</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.720213698469626</v>
+        <v>6.574719490723921</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.111584562342965</v>
+        <v>5.164601494718124</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.33888369215933</v>
+        <v>14.39628591494817</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2201064777548601</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6520667099459623</v>
+        <v>0.6520667099459626</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1563149679376823</v>
@@ -1616,7 +1616,7 @@
         <v>0.07953272429215448</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3820263005581868</v>
+        <v>0.3820263005581869</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1898660663268879</v>
@@ -1625,7 +1625,7 @@
         <v>0.1329473411814283</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4845999273777039</v>
+        <v>0.4845999273777037</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1353528050623483</v>
+        <v>0.130178736327441</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1171988993443989</v>
+        <v>0.1141001392740327</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5165011673393129</v>
+        <v>0.5145998478860917</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08239136223900022</v>
+        <v>0.08494981868045286</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.008538087621020358</v>
+        <v>0.007549061992309635</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3058967327257096</v>
+        <v>0.2999390062105262</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.129578936079344</v>
+        <v>0.1238143609813769</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.06887612783910584</v>
+        <v>0.06970452218577265</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4123853176477241</v>
+        <v>0.4141502417278413</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3759932421376512</v>
+        <v>0.3643228270835298</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3456270918912192</v>
+        <v>0.3364249036535911</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8084112201038455</v>
+        <v>0.7958746761431486</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2324753582526597</v>
+        <v>0.2370597720901994</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1531429137685461</v>
+        <v>0.1546435052669693</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4657509637407774</v>
+        <v>0.458783935569329</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2601920167632126</v>
+        <v>0.2540644601328603</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1966663256596203</v>
+        <v>0.2001545585098431</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5568626620041266</v>
+        <v>0.5615182006040418</v>
       </c>
     </row>
     <row r="34">
